--- a/model_exports/labels/2.0_True_False_6_1.xlsx
+++ b/model_exports/labels/2.0_True_False_6_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C732"/>
+  <dimension ref="A1:C733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-494301276121731072</t>
+          <t>t-495123711071387649</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-675691648802795522</t>
+          <t>t-599446630732079104</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-933792655041064962</t>
+          <t>t-624374054338867201</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,20 +492,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-688456240490508289</t>
+          <t>t-887418286014570496</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-706805466739949568</t>
+          <t>t-1032695855143370753</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,37 +518,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-763135506188206084</t>
+          <t>t-1033108055162941440</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-763744681616257025</t>
+          <t>t-497136108463865857</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-764320260182806528</t>
+          <t>t-977115036585021440</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -557,46 +557,46 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-887418286014570496</t>
+          <t>t-498526651912032258</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-605091889558261760</t>
+          <t>t-498546619508609024</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-605138894867161088</t>
+          <t>t-498600191088271361</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-605351836636311552</t>
+          <t>t-498638581536399361</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,20 +609,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-608798073561612289</t>
+          <t>t-498641690949713920</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-622509518346268672</t>
+          <t>t-498643083517767681</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,20 +635,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-641712529677398016</t>
+          <t>t-498648204872015872</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-683960479224586240</t>
+          <t>t-551476214402387968</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,11 +661,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-684033292694327296</t>
+          <t>t-551489050045988864</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -674,20 +674,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-684082364117585920</t>
+          <t>t-605091889558261760</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-684154242035089408</t>
+          <t>t-605138894867161088</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,24 +700,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-686267623462408192</t>
+          <t>t-605351836636311552</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-694942679688437760</t>
+          <t>t-622509518346268672</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -726,20 +726,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-695354495606259712</t>
+          <t>t-756508260925075456</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-696194593700712448</t>
+          <t>t-875748360933847041</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,33 +752,33 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-707911328145477632</t>
+          <t>t-876890893143298050</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-707931200627875840</t>
+          <t>t-876899745704415232</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-708036809603698689</t>
+          <t>t-876909191105048577</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,33 +791,33 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-708038329514790912</t>
+          <t>t-876910840670302209</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-708041345638776832</t>
+          <t>t-876983597760172032</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-708249950530961408</t>
+          <t>t-877064271393370112</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,37 +830,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-708273072424554497</t>
+          <t>t-877647799629733893</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-708363296160747520</t>
+          <t>t-877649383340298240</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-708384601509601280</t>
+          <t>t-878107705168334848</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,20 +869,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-708389352393539585</t>
+          <t>t-878263651773407233</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-708444180087971840</t>
+          <t>t-878265674975461376</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,7 +895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-709190294621835264</t>
+          <t>t-878542338414362624</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,11 +908,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-709228058117480449</t>
+          <t>t-880275227367821312</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-709405662791372802</t>
+          <t>t-918248158253273089</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-709892861110657024</t>
+          <t>t-924109747627929600</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,33 +947,33 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-710265095104946176</t>
+          <t>t-968259732858376192</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-738281921046675456</t>
+          <t>t-982113517636435969</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-738404067647455232</t>
+          <t>t-982126921570893825</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-738429326224302080</t>
+          <t>t-1052350536111013888</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-738429350467543044</t>
+          <t>t-513019810272137216</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,7 +1012,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-765195503457882112</t>
+          <t>t-875896081233567744</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,20 +1025,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-765297031346655232</t>
+          <t>t-694987975168495617</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-784233737512890376</t>
+          <t>t-819315426853273600</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,59 +1051,59 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-784234780590080001</t>
+          <t>t-573406774969044992</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-798305189924982784</t>
+          <t>t-573566918876995584</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-826627277026791424</t>
+          <t>t-574621995633111040</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-830539164638703616</t>
+          <t>t-594694315915350017</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-858824188815056896</t>
+          <t>t-606774570255654912</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,46 +1116,46 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-859408582407749634</t>
+          <t>t-641417749898522624</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-859423315986874372</t>
+          <t>t-687924478219685888</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-859882605604425731</t>
+          <t>t-687934498701455360</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-875748360933847041</t>
+          <t>t-744529744385892352</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,24 +1168,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-945777508007464961</t>
+          <t>t-744534982144757760</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-959172176346836993</t>
+          <t>t-753035409660186624</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1194,46 +1194,46 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-970872683402539011</t>
+          <t>t-754462771173924865</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-973668678867746816</t>
+          <t>t-765818303898058752</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-973683665661198337</t>
+          <t>t-801687875939078144</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-982113517636435969</t>
+          <t>t-893144326049419264</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,50 +1246,50 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-982126921570893825</t>
+          <t>t-924921911510949890</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1045002319061012482</t>
+          <t>t-924939317381758976</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-1045014122092482560</t>
+          <t>t-925210606361300992</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-1045027654121000962</t>
+          <t>t-925257914817892352</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-1045031106968465408</t>
+          <t>t-1047054739547013120</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-1045065376575475712</t>
+          <t>t-1047068713986547712</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,20 +1324,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1054831014869123073</t>
+          <t>t-1047079117244399617</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-1054887299698380800</t>
+          <t>t-1047083573738500096</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,24 +1350,24 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-1055927061867585536</t>
+          <t>t-1061557072670670850</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-499691919128018944</t>
+          <t>t-1061559942140780544</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1376,20 +1376,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-822160325608734720</t>
+          <t>t-538858836992331776</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-822824168110493696</t>
+          <t>t-618483539777093632</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,20 +1402,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-823329247884251137</t>
+          <t>t-745595825670131714</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-778024515909537792</t>
+          <t>t-745600923448258560</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,76 +1428,76 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-863147106038624256</t>
+          <t>t-753345702428827652</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-863168507747454977</t>
+          <t>t-753345808620105728</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1024774127687749633</t>
+          <t>t-753350269518409728</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-533166195508117505</t>
+          <t>t-757940960609173505</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-744529744385892352</t>
+          <t>t-764602141449170944</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-744534982144757760</t>
+          <t>t-770776256669372416</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1506,37 +1506,37 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-754462771173924865</t>
+          <t>t-981152225723604993</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-768798517900906496</t>
+          <t>t-611838090278121474</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-798458981752573952</t>
+          <t>t-612267884463673344</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1545,59 +1545,59 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-798478057195507713</t>
+          <t>t-612280320520425472</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-798508699044220928</t>
+          <t>t-745031440031694848</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-798530247192965122</t>
+          <t>t-756129418616139777</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-799607144802750464</t>
+          <t>t-773307883878363136</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-1010157701769281538</t>
+          <t>t-917079758076370946</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,46 +1610,46 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-506695122298212352</t>
+          <t>t-999634090503569409</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-618483539777093632</t>
+          <t>t-1050075728891535361</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-770776256669372416</t>
+          <t>t-1050076017593745408</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-858084101320056832</t>
+          <t>t-1050077658590134272</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,11 +1662,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-858490544007327747</t>
+          <t>t-1050092626786037760</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,11 +1675,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-903265153931608064</t>
+          <t>t-1050210928594173952</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1688,24 +1688,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-981152225723604993</t>
+          <t>t-1050446607055896576</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-611838090278121474</t>
+          <t>t-1051200746312663040</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-612267884463673344</t>
+          <t>t-548325093256884224</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-612280320520425472</t>
+          <t>t-513123960192794624</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,7 +1740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-619513224057061376</t>
+          <t>t-519554920140124160</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,33 +1753,33 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-756129418616139777</t>
+          <t>t-781902339066191873</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-917079758076370946</t>
+          <t>t-858145943971037184</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-999634090503569409</t>
+          <t>t-858516314167627776</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-1016140956322713601</t>
+          <t>t-868226298719633408</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,11 +1805,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-767772450964725760</t>
+          <t>t-978735824383590400</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1818,20 +1818,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-1018620410819219456</t>
+          <t>t-524878421172953088</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-1027386544536150016</t>
+          <t>t-897129980584439812</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,7 +1844,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-770209564532674560</t>
+          <t>t-552005598615597057</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-781902339066191873</t>
+          <t>t-552017511018168320</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-697866091025080320</t>
+          <t>t-552021252442169344</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,20 +1883,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-921072406919352320</t>
+          <t>t-552065463610802176</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-921102349552275456</t>
+          <t>t-552468777791524864</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,20 +1909,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-921122924505026560</t>
+          <t>t-638954151821594624</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-921266455856939008</t>
+          <t>t-639060084857929728</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-921341244332113926</t>
+          <t>t-948484381987037185</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,20 +1948,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-921699631360176128</t>
+          <t>t-948486603227451392</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-953648628647706624</t>
+          <t>t-948505461745168384</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,37 +1974,37 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-973959709605662721</t>
+          <t>t-948538940134477824</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-973962375287246848</t>
+          <t>t-948573984802689025</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-973995114065465345</t>
+          <t>t-1042485319055155201</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2013,33 +2013,33 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-974310620169474048</t>
+          <t>t-665687399033397248</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-536361968840769536</t>
+          <t>t-583930739512713216</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-630358013853990912</t>
+          <t>t-841795901764993024</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,20 +2052,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-675047436134543360</t>
+          <t>t-841877177624850434</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-919827029243187200</t>
+          <t>t-843361396750409728</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-919919408797151233</t>
+          <t>t-560903834407817217</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,7 +2091,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-919933275422027776</t>
+          <t>t-657221044642684928</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,7 +2104,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-919961378433224704</t>
+          <t>t-873219337427062785</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,20 +2117,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-920296060211400704</t>
+          <t>t-876969646846603270</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-986841970411823104</t>
+          <t>t-987722164903251968</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,11 +2143,11 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-1031843897373278208</t>
+          <t>t-1035595539918848000</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2156,24 +2156,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-1020278662699134976</t>
+          <t>t-1062308914354642944</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-542093659286429696</t>
+          <t>t-575206069833629696</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-936531630868529152</t>
+          <t>t-602966767602831362</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,33 +2195,33 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-782023965489238017</t>
+          <t>t-602969826642898945</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-758769139905204224</t>
+          <t>t-603005702697713664</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-692803310668087296</t>
+          <t>t-604735735154012160</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-876969646846603270</t>
+          <t>t-598299676807340033</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,20 +2247,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-987722164903251968</t>
+          <t>t-737748026983354372</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-992180383449014272</t>
+          <t>t-737752255571595264</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,11 +2273,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-992184677086777345</t>
+          <t>t-1040717985516859392</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2286,24 +2286,24 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-1022207950511923200</t>
+          <t>t-1031211148908081152</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-575206069833629696</t>
+          <t>t-698546841881853953</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2312,20 +2312,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-590950091256631296</t>
+          <t>t-782264769742934016</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-901151504714870784</t>
+          <t>t-878162982953402368</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,24 +2338,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-986530301030682624</t>
+          <t>t-904717770524372993</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-607855197835149312</t>
+          <t>t-961914631135617025</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2364,11 +2364,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-612099863975583744</t>
+          <t>t-979726568175165440</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-612781430335082496</t>
+          <t>t-624561158788247552</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,24 +2390,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-612783809587580928</t>
+          <t>t-834484332148297728</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-621245283935121408</t>
+          <t>t-784477844240011265</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -2416,11 +2416,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-698546841881853953</t>
+          <t>t-962803499766513664</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2429,59 +2429,59 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-759898000407662594</t>
+          <t>t-1003953189820010496</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-782264769742934016</t>
+          <t>t-1043269235474984960</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-979726568175165440</t>
+          <t>t-649543845269667840</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-1036699556560470016</t>
+          <t>t-769366123678621696</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-860938986382135296</t>
+          <t>t-743015826601697281</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,24 +2494,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-861076485599354880</t>
+          <t>t-781685141211058176</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-695269003892228096</t>
+          <t>t-829201577370075136</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2520,11 +2520,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-899745107900940288</t>
+          <t>t-829349939947925504</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2533,24 +2533,24 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-899747204986019844</t>
+          <t>t-829364075721326592</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-748127558550560768</t>
+          <t>t-829412936661815299</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2559,20 +2559,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-780856348493832192</t>
+          <t>t-1029734360872771584</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-864813217943441412</t>
+          <t>t-1034302397882015745</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,11 +2585,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-1034302397882015745</t>
+          <t>t-1034317413309919232</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2598,7 +2598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-1034317413309919232</t>
+          <t>t-1034572709651533825</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,33 +2611,33 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-1034572709651533825</t>
+          <t>t-1034867901902319618</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-1034867901902319618</t>
+          <t>t-1034875857125425152</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-1034875857125425152</t>
+          <t>t-1034886406957662208</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,7 +2650,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-1034886406957662208</t>
+          <t>t-1034922534326738944</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,46 +2663,46 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-1034922534326738944</t>
+          <t>t-1035345459290746880</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-1035345459290746880</t>
+          <t>t-1035480584934514690</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-1035480584934514690</t>
+          <t>t-1035555438882897926</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-1035555438882897926</t>
+          <t>t-1036020306895413248</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,20 +2715,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1036020306895413248</t>
+          <t>t-1036935289485316096</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-1036935289485316096</t>
+          <t>t-1037072521940623360</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-1037072521940623360</t>
+          <t>t-1037363401314455553</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-1037363401314455553</t>
+          <t>t-1037404586812821505</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,7 +2767,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-1037404586812821505</t>
+          <t>t-1037450313920393218</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,7 +2780,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-1037450313920393218</t>
+          <t>t-1037475943969898497</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,7 +2793,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-1037475943969898497</t>
+          <t>t-1037727143038517248</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-1037727143038517248</t>
+          <t>t-1037749001658032128</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,27 +2819,27 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-1037749001658032128</t>
+          <t>t-1042035586717110280</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-1039228208804233216</t>
+          <t>t-924790802882146304</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -2897,50 +2897,50 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-514175192319680513</t>
+          <t>t-911670405483651072</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-737800453916897280</t>
+          <t>t-660036667412082688</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-745382805253677057</t>
+          <t>t-660641499701489665</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-780146894357929984</t>
+          <t>t-737800453916897280</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -2949,46 +2949,46 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-851625591652720640</t>
+          <t>t-815857432882769920</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-852529810760908801</t>
+          <t>t-816077181575106560</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-852624282018615296</t>
+          <t>t-956329812573945857</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-894616667350872064</t>
+          <t>t-992252736560222210</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,20 +3001,20 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-895668017060651009</t>
+          <t>t-1016477854391992320</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-898515685369946113</t>
+          <t>t-1036976718718881793</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,11 +3027,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-907946100618907648</t>
+          <t>t-1039643454140231684</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-952979792495816704</t>
+          <t>t-1039968877537456128</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,24 +3053,24 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1009549219240308737</t>
+          <t>t-636611275666128896</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1014570924681687042</t>
+          <t>t-750893641632063488</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -3079,11 +3079,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1026272267364253698</t>
+          <t>t-885230061556813824</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3092,37 +3092,37 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1052665207342944261</t>
+          <t>t-885519574443020288</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1053196089317306368</t>
+          <t>t-897457481550618624</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1053286918086103042</t>
+          <t>t-1054153981998575616</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -3131,11 +3131,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1054369632671404032</t>
+          <t>t-619624637685755904</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-561309176475824128</t>
+          <t>t-655463817921626112</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-578194227852505088</t>
+          <t>t-903370281829498882</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,11 +3170,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-628272138890252288</t>
+          <t>t-1050781684117987329</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -3183,20 +3183,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-756927547049320448</t>
+          <t>t-653152901892739072</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-891394338445553666</t>
+          <t>t-653993411570192384</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,11 +3209,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-891401235391066112</t>
+          <t>t-660890514741399552</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -3222,7 +3222,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-891671460804259840</t>
+          <t>t-661115206525915136</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,7 +3235,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-891695041609162754</t>
+          <t>t-661147212135727104</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,33 +3248,33 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-892069950281711617</t>
+          <t>t-661201099085377537</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-892901315642146816</t>
+          <t>t-832931106873819136</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1030896472881917952</t>
+          <t>t-845940693256286208</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,20 +3287,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-796087988140834817</t>
+          <t>t-849475288652238849</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1042440160749780992</t>
+          <t>t-919174352289005568</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,7 +3313,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-577773253898477568</t>
+          <t>t-919528265718665216</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,37 +3326,37 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-577808831918579712</t>
+          <t>t-1000764381108555776</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-581999689727389696</t>
+          <t>t-1037619174145712128</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-647384012202356736</t>
+          <t>t-1041944531015483392</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -3365,50 +3365,50 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-648159002224914436</t>
+          <t>t-1042049144620285953</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-648232794137718784</t>
+          <t>t-1014627656082579457</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-648426685910618112</t>
+          <t>t-741861803148214272</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-739781293882347520</t>
+          <t>t-570559495811813376</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -3417,24 +3417,24 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-757849369496301569</t>
+          <t>t-570650767369109504</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-758572772490637312</t>
+          <t>t-570656230466838528</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -3443,72 +3443,72 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-767994872578056192</t>
+          <t>t-570659758706962432</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-913153226706472965</t>
+          <t>t-570724512095969280</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-972048308909826048</t>
+          <t>t-570966152807100416</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-1052331593933688832</t>
+          <t>t-570990183648243712</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-1052814538419003392</t>
+          <t>t-571060362520502272</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-1052930779947393024</t>
+          <t>t-571231922355097600</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,7 +3521,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-1052972300667146241</t>
+          <t>t-571320451407974400</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,7 +3534,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-1053005694822207488</t>
+          <t>t-571330597400018944</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,7 +3547,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-1053014697077817346</t>
+          <t>t-571345826099941376</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,11 +3560,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-1053091674438725632</t>
+          <t>t-571920017329156096</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3573,24 +3573,24 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-1053211878921568256</t>
+          <t>t-572029056453115906</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-1053220103070932992</t>
+          <t>t-573087826360836097</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3599,20 +3599,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-1053451825607774209</t>
+          <t>t-666910428551897088</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1053915265375834112</t>
+          <t>t-669588910935285760</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,20 +3625,20 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-538818433920827392</t>
+          <t>t-669601333348073473</t>
         </is>
       </c>
       <c r="B246" t="n">
         <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-1014627656082579457</t>
+          <t>t-727758683510329344</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,7 +3651,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-741861803148214272</t>
+          <t>t-727889856274247680</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,46 +3664,46 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-859608993752379392</t>
+          <t>t-801380815166930945</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-903255663417204736</t>
+          <t>t-821117207245713408</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-772514094360305664</t>
+          <t>t-946151169231114241</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-893162180492787716</t>
+          <t>t-983975898042064896</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,11 +3716,11 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-570559495811813376</t>
+          <t>t-984343410269151233</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-570650767369109504</t>
+          <t>t-1060159476664356864</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,33 +3742,33 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-570656230466838528</t>
+          <t>t-649689751415599105</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-570659758706962432</t>
+          <t>t-755764875155083264</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-570724512095969280</t>
+          <t>t-570999709160116224</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,20 +3781,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-570966152807100416</t>
+          <t>t-571255966727053312</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-570990183648243712</t>
+          <t>t-610512692353310721</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,7 +3807,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-571060362520502272</t>
+          <t>t-610555659969409025</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,7 +3820,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-571231922355097600</t>
+          <t>t-698124151282864129</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,20 +3833,20 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-571320451407974400</t>
+          <t>t-698267386730975232</t>
         </is>
       </c>
       <c r="B262" t="n">
         <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-571330597400018944</t>
+          <t>t-698288943490535428</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,7 +3859,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-571345826099941376</t>
+          <t>t-698457478183301120</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,11 +3872,11 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-571920017329156096</t>
+          <t>t-698469723680464897</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3885,24 +3885,24 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-572029056453115906</t>
+          <t>t-698599200850898944</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-573087826360836097</t>
+          <t>t-698812315353903104</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -3911,50 +3911,50 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-670921727346614272</t>
+          <t>t-565107354606518272</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-983975898042064896</t>
+          <t>t-573292412430376960</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-984343410269151233</t>
+          <t>t-628489671656517632</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-592720340289224705</t>
+          <t>t-736272987683426305</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3963,7 +3963,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-610512692353310721</t>
+          <t>t-862378347007025154</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,7 +3976,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-610555659969409025</t>
+          <t>t-891969624929075201</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,7 +3989,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-722677158112587776</t>
+          <t>t-892105609071349760</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,20 +4002,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-632590097284734976</t>
+          <t>t-892129259686428672</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-736272987683426305</t>
+          <t>t-899250634855251968</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,11 +4028,11 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-800018818399694848</t>
+          <t>t-930445521671589888</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-800716652195282946</t>
+          <t>t-984138305477505025</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,7 +4054,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-862378347007025154</t>
+          <t>t-1049061003617607680</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,7 +4067,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-864137650625753088</t>
+          <t>t-1049351090909667329</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,20 +4080,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-864465975068037122</t>
+          <t>t-1050209065153036288</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-864657619700658176</t>
+          <t>t-645024639639535616</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,20 +4106,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-894726430050754561</t>
+          <t>t-651859489713291264</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-899250634855251968</t>
+          <t>t-652540388272553984</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,11 +4132,11 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-571711350180868097</t>
+          <t>t-652542102539235329</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -4145,46 +4145,46 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-615316042294890496</t>
+          <t>t-798356661148655616</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-645024639639535616</t>
+          <t>t-798650812511588352</t>
         </is>
       </c>
       <c r="B287" t="n">
         <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-648439576441171968</t>
+          <t>t-892449776129777665</t>
         </is>
       </c>
       <c r="B288" t="n">
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-649621017187512320</t>
+          <t>t-892462041277091840</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,11 +4197,11 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-887375379186548736</t>
+          <t>t-892471980875808773</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -4210,33 +4210,33 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-897976904019476481</t>
+          <t>t-892472490483646466</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-901999787855228933</t>
+          <t>t-892606487482089472</t>
         </is>
       </c>
       <c r="B292" t="n">
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-902015237951549441</t>
+          <t>t-892633367342088192</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,24 +4249,24 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-906773843066441728</t>
+          <t>t-892700840817045504</t>
         </is>
       </c>
       <c r="B294" t="n">
         <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-906922961621454848</t>
+          <t>t-892731725897281538</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -4275,7 +4275,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-906981528483364865</t>
+          <t>t-900702851202207746</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,7 +4288,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-906982446905876480</t>
+          <t>t-729341140499976193</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,24 +4301,24 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-995839519449640960</t>
+          <t>t-729421969410564096</t>
         </is>
       </c>
       <c r="B298" t="n">
         <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-573279947445420034</t>
+          <t>t-729436964269658112</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
         <v>1</v>
@@ -4327,50 +4327,50 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-573281947792883712</t>
+          <t>t-729446762138591232</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-839501967894405121</t>
+          <t>t-729454167735959552</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-839604530048299008</t>
+          <t>t-729749802209054720</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-884636889948471296</t>
+          <t>t-831479807821103104</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -4379,11 +4379,11 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-874804635327905792</t>
+          <t>t-831825002534154241</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -4392,7 +4392,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-821077876112035840</t>
+          <t>t-839501967894405121</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-821090113476325376</t>
+          <t>t-839604530048299008</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,7 +4418,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-601584910428729344</t>
+          <t>t-960911174505238534</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,11 +4431,11 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-640921153591050240</t>
+          <t>t-1027967787312939008</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -4444,11 +4444,11 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-669944728155090944</t>
+          <t>t-609166003570802689</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -4457,11 +4457,11 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-774740590848188416</t>
+          <t>t-1002347419114311681</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -4470,7 +4470,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-848618580681912320</t>
+          <t>t-580101390820876288</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,7 +4483,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-848657153367953411</t>
+          <t>t-580474226571915265</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,11 +4496,11 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-848877245439594496</t>
+          <t>t-581395014502191104</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -4509,11 +4509,11 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-912188711261036544</t>
+          <t>t-601384798897115138</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -4522,33 +4522,33 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-912397778260840448</t>
+          <t>t-601584910428729344</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-912428211253972997</t>
+          <t>t-640921153591050240</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-975332165528576000</t>
+          <t>t-786005533685710849</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,63 +4561,63 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-1047259835777990656</t>
+          <t>t-992231007083421698</t>
         </is>
       </c>
       <c r="B318" t="n">
         <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-1049670308142206978</t>
+          <t>t-992892560405250048</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-1049725086469685248</t>
+          <t>t-1038395251214495744</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-612283618052825088</t>
+          <t>t-1038467054960095234</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-914224756555055104</t>
+          <t>t-1038555106885681153</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -4626,7 +4626,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-631280418583658496</t>
+          <t>t-1049670308142206978</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,7 +4639,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-1050079983765311488</t>
+          <t>t-1049725086469685248</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,7 +4652,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-646419866795118592</t>
+          <t>t-631280418583658496</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,20 +4665,20 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-676228752599314434</t>
+          <t>t-735633517237919744</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-676234421217845248</t>
+          <t>t-1050079983765311488</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,33 +4691,33 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-676358315065016322</t>
+          <t>t-646419866795118592</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-648598850530226176</t>
+          <t>t-756001538783326208</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-765678719205724160</t>
+          <t>t-756128433025843200</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,7 +4730,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-983744396364480512</t>
+          <t>t-756153001300156416</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-653702331221999616</t>
+          <t>t-756172674531942400</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-659172274482733056</t>
+          <t>t-1006709802775412736</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,24 +4769,24 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-659184469690175488</t>
+          <t>t-876856640372387842</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-678946767459618818</t>
+          <t>t-910961880700559360</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4795,20 +4795,20 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-679082878148341760</t>
+          <t>t-677631116958896129</t>
         </is>
       </c>
       <c r="B336" t="n">
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-667518003613818880</t>
+          <t>t-794366500865982467</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,7 +4821,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-753352623630278664</t>
+          <t>t-976481160363692032</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,11 +4834,11 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-867110157813075968</t>
+          <t>t-1001848606427697153</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -4847,20 +4847,20 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-867380655289761792</t>
+          <t>t-846003285282697216</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-867711994765471750</t>
+          <t>t-939871571342249985</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,24 +4873,24 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-867724212827545601</t>
+          <t>t-738154348752953345</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-868084138674454528</t>
+          <t>t-738363319199928321</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-868161755167547394</t>
+          <t>t-738396040357761024</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-868563701057679360</t>
+          <t>t-738456086156443648</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,11 +4925,11 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-869251443236249600</t>
+          <t>t-738474348290277376</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4938,46 +4938,46 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-869321042807988224</t>
+          <t>t-1009997647032344576</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-869576732906532865</t>
+          <t>t-880159202567753728</t>
         </is>
       </c>
       <c r="B348" t="n">
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-685125009120038913</t>
+          <t>t-946020250805514240</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-842138233173626880</t>
+          <t>t-996559091932770305</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,7 +4990,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-842141623454687232</t>
+          <t>t-922899400032178176</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,46 +5003,46 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-842494366820286465</t>
+          <t>t-922934157185110016</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-846003285282697216</t>
+          <t>t-779013669589884928</t>
         </is>
       </c>
       <c r="B353" t="n">
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-720246081364365312</t>
+          <t>t-785262083638169600</t>
         </is>
       </c>
       <c r="B354" t="n">
         <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-720295493985677312</t>
+          <t>t-996488939933401088</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,7 +5055,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-939871571342249985</t>
+          <t>t-805294233020231681</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,7 +5068,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-1054497487657021440</t>
+          <t>t-805399384150147076</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,7 +5081,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-734458703231885312</t>
+          <t>t-814469186323939328</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,33 +5094,33 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-1044155993779851264</t>
+          <t>t-814665332673703936</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-1025467650649014283</t>
+          <t>t-814669018061803521</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-1025523844994412544</t>
+          <t>t-823317212446556161</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,11 +5133,11 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-1025538626191380480</t>
+          <t>t-855194797681897472</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -5146,33 +5146,33 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-1026286692037222401</t>
+          <t>t-855248575567147008</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-1026301775203037184</t>
+          <t>t-857651953928744960</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-1026820332710252544</t>
+          <t>t-885945201105219584</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,11 +5185,11 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-1027725663703363584</t>
+          <t>t-885947457330438145</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -5198,11 +5198,11 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-1035527464511053825</t>
+          <t>t-861539001962041345</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -5211,20 +5211,20 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-756636337130774528</t>
+          <t>t-848529770258288642</t>
         </is>
       </c>
       <c r="B368" t="n">
         <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-772460103026868224</t>
+          <t>t-850386711385260034</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,7 +5237,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-768829814824247296</t>
+          <t>t-901254745888878592</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,59 +5250,59 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-768861970195881986</t>
+          <t>t-906573891346165760</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-768886684955975680</t>
+          <t>t-1026649986782650369</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-769194684576960513</t>
+          <t>t-907371676148670465</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-779066799077851136</t>
+          <t>t-955145334002417666</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-783618446827356161</t>
+          <t>t-1045400324041846785</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,7 +5315,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-784456852864065536</t>
+          <t>t-1042065710745309186</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,20 +5328,20 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-785262083638169600</t>
+          <t>t-1043080309376466944</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-996488939933401088</t>
+          <t>t-1043179210905464832</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,7 +5354,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-788788619779665920</t>
+          <t>t-527207598521843712</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,7 +5367,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-805294233020231681</t>
+          <t>t-527210275955818496</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,7 +5380,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-805399384150147076</t>
+          <t>t-527591945795690496</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,24 +5393,24 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-1049947970664304640</t>
+          <t>t-989520576460001280</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-847243626082050048</t>
+          <t>t-1016375311733284864</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -5419,24 +5419,24 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-847412512383356932</t>
+          <t>t-520694218625675264</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-847416452424519680</t>
+          <t>t-786070938412515329</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -5445,37 +5445,37 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-847625871712112640</t>
+          <t>t-786266752061669376</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-847873968065433600</t>
+          <t>t-786287404416135168</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-848285144846921728</t>
+          <t>t-786588204170346496</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -5484,24 +5484,24 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-848349687950266373</t>
+          <t>t-786674211528015873</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-848632201470259200</t>
+          <t>t-927168021512126464</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
         <v>1</v>
@@ -5510,11 +5510,11 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-848638922687221760</t>
+          <t>t-950172807996026880</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -5523,11 +5523,11 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-848870222769606658</t>
+          <t>t-950367246299394048</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -5536,7 +5536,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-848971430775709697</t>
+          <t>t-1006187748338864128</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,7 +5549,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-849083151532032000</t>
+          <t>t-1006198330727247872</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,72 +5562,72 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-849228504088670208</t>
+          <t>t-1006207380676280320</t>
         </is>
       </c>
       <c r="B395" t="n">
         <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-863757133304795136</t>
+          <t>t-1006582449827209216</t>
         </is>
       </c>
       <c r="B396" t="n">
         <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-849301263959420929</t>
+          <t>t-591229240311439360</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-860847907427233792</t>
+          <t>t-635444360306368512</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-902559120888184833</t>
+          <t>t-722253771867181056</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-903611928827674624</t>
+          <t>t-722818069320470529</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,11 +5640,11 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-880054371417018369</t>
+          <t>t-722837910135832577</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
         <v>1</v>
@@ -5653,124 +5653,124 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-1034597062573211651</t>
+          <t>t-722884869374619648</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-894457279076020224</t>
+          <t>t-723517423786299392</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-912214251749744641</t>
+          <t>t-931216910477414400</t>
         </is>
       </c>
       <c r="B404" t="n">
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-913513656511614977</t>
+          <t>t-738967171397758976</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-961482044650930177</t>
+          <t>t-955489372547305472</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-850388688303529986</t>
+          <t>t-955838886860787712</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-850540226590253057</t>
+          <t>t-956166896012939265</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-859937675339497473</t>
+          <t>t-957342329127473158</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-970747848747778048</t>
+          <t>t-788324770765008896</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-1016375311733284864</t>
+          <t>t-875802481292439553</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,11 +5783,11 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-513212132176175105</t>
+          <t>t-955738647663431681</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -5796,33 +5796,33 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-1048603963069779968</t>
+          <t>t-955740876436844544</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-521063203389050882</t>
+          <t>t-956201264915910656</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-521358835361927168</t>
+          <t>t-1027585082050207745</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,24 +5835,24 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-538351189679939584</t>
+          <t>t-591871892283334656</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-776037646023925760</t>
+          <t>t-629222720161640449</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-786070938412515329</t>
+          <t>t-634983488203177984</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,24 +5874,24 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-786266752061669376</t>
+          <t>t-636255173036388352</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-786287404416135168</t>
+          <t>t-642582982285504512</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -5900,7 +5900,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-786588204170346496</t>
+          <t>t-653264904581984256</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,7 +5913,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-786674211528015873</t>
+          <t>t-653992755027386368</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,46 +5926,46 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-819436418263031808</t>
+          <t>t-748093412272910336</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-824672856466423809</t>
+          <t>t-783909177920020480</t>
         </is>
       </c>
       <c r="B424" t="n">
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-1051696567651106816</t>
+          <t>t-784305124269182976</t>
         </is>
       </c>
       <c r="B425" t="n">
         <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-1051874637942947840</t>
+          <t>t-787588682731626496</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,7 +5978,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-591229240311439360</t>
+          <t>t-962342450219094016</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,24 +5991,24 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-520483074711486464</t>
+          <t>t-962358038081523713</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-520499948983304192</t>
+          <t>t-962393573927870466</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -6017,11 +6017,11 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-520513908759859200</t>
+          <t>t-1001548678748954624</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -6030,20 +6030,20 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-674956056209063937</t>
+          <t>t-1001557802375110657</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-782797044729741312</t>
+          <t>t-1048194085624995840</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,7 +6056,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-1027294707855048705</t>
+          <t>t-542716499115642881</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,50 +6069,50 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-523536371525623808</t>
+          <t>t-649269312625209344</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-722253771867181056</t>
+          <t>t-722777139469283328</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-722818069320470529</t>
+          <t>t-653928809671081984</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-722837910135832577</t>
+          <t>t-740095983602782208</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C437" t="n">
         <v>1</v>
@@ -6121,11 +6121,11 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-722884869374619648</t>
+          <t>t-764828802384007168</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -6134,11 +6134,11 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-723517423786299392</t>
+          <t>t-816609916018454528</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -6147,76 +6147,76 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-642554131211755524</t>
+          <t>t-552766016325840896</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-644488507239628800</t>
+          <t>t-571286359673053184</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-644488513442983937</t>
+          <t>t-571344417145135105</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-909677183328751616</t>
+          <t>t-669507403621277696</t>
         </is>
       </c>
       <c r="B443" t="n">
         <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-627009098568073216</t>
+          <t>t-669900887607898113</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-819866466162012160</t>
+          <t>t-684255556144619520</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
         <v>0</v>
@@ -6225,7 +6225,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-865447859285405696</t>
+          <t>t-823181666160144384</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,7 +6238,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-865573879527428096</t>
+          <t>t-828957006832795648</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,7 +6251,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-1051891605035241474</t>
+          <t>t-996477889779511296</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,20 +6264,20 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-634983488203177984</t>
+          <t>t-1018785093295464448</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-694507587149111296</t>
+          <t>t-564785591561506817</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -6290,20 +6290,20 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-702966418057330688</t>
+          <t>t-960782723957870592</t>
         </is>
       </c>
       <c r="B451" t="n">
         <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-703646494901927936</t>
+          <t>t-999158779580121089</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,46 +6316,46 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-734290700469166080</t>
+          <t>t-731437259828924417</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-894594064582094852</t>
+          <t>t-577532478912663552</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-948989121611075584</t>
+          <t>t-869260706524397568</t>
         </is>
       </c>
       <c r="B455" t="n">
         <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-976509689000325120</t>
+          <t>t-970012076428193796</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,37 +6368,37 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-1006399568249008128</t>
+          <t>t-660085012306395136</t>
         </is>
       </c>
       <c r="B457" t="n">
         <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-1006422910762995712</t>
+          <t>t-918068732882313216</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-1006422931839299584</t>
+          <t>t-817303376253882368</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C459" t="n">
         <v>1</v>
@@ -6407,11 +6407,11 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-1006427045709180929</t>
+          <t>t-587481090845179905</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
         <v>1</v>
@@ -6420,33 +6420,33 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-1006463635693203456</t>
+          <t>t-591228165827260416</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-722777139469283328</t>
+          <t>t-594549643134009344</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-816609916018454528</t>
+          <t>t-1024752032350195712</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,46 +6459,46 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-1014607937048850434</t>
+          <t>t-949260261575229441</t>
         </is>
       </c>
       <c r="B464" t="n">
         <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-629936150220685312</t>
+          <t>t-968152808062160896</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-684255556144619520</t>
+          <t>t-608689054549471232</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-888058781363580930</t>
+          <t>t-608880570362437632</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,33 +6511,33 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-1057351782484115458</t>
+          <t>t-994824289349242881</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-837620098416459776</t>
+          <t>t-994897053523341314</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-1050114319227195392</t>
+          <t>t-995019257841889281</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -6550,11 +6550,11 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-720181387190530048</t>
+          <t>t-995256568429064192</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -6563,7 +6563,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-869260706524397568</t>
+          <t>t-1008938317684060160</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -6576,46 +6576,46 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-837336632667877376</t>
+          <t>t-1008975928465248256</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-918068732882313216</t>
+          <t>t-1008978373484400640</t>
         </is>
       </c>
       <c r="B474" t="n">
         <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-988840187785568257</t>
+          <t>t-1008995195113918464</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-1005061843843289088</t>
+          <t>t-1009346793090506752</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,7 +6628,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-940281474259062789</t>
+          <t>t-1009539540728639490</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,11 +6641,11 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-591541513768673280</t>
+          <t>t-1010058406223400966</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C478" t="n">
         <v>0</v>
@@ -6654,24 +6654,24 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-593397061376147456</t>
+          <t>t-1011026406564823042</t>
         </is>
       </c>
       <c r="B479" t="n">
         <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-801458708786151425</t>
+          <t>t-760350969154723840</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -6680,11 +6680,11 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-594549643134009344</t>
+          <t>t-618340855657721856</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -6693,7 +6693,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-624613462476337152</t>
+          <t>t-639695836943884288</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,20 +6706,20 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-624628271745998852</t>
+          <t>t-643112220348534784</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-948800001890713600</t>
+          <t>t-661463139213565952</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,37 +6732,37 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-594811114661228544</t>
+          <t>t-925429606693457921</t>
         </is>
       </c>
       <c r="B485" t="n">
         <v>0</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-595126127343116288</t>
+          <t>t-953295637679951872</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-955871714914766849</t>
+          <t>t-953311292475011072</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -6771,24 +6771,24 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-605693478799065088</t>
+          <t>t-652148120952803329</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-605727874348384256</t>
+          <t>t-664402656019005440</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -6797,37 +6797,37 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-605802486604046337</t>
+          <t>t-656869699980955649</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-605842449722777601</t>
+          <t>t-657672314465726464</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-605899935117017088</t>
+          <t>t-784413747376893952</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -6836,11 +6836,11 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-968152808062160896</t>
+          <t>t-681422251338674177</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -6849,11 +6849,11 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-610036486059200513</t>
+          <t>t-948994988666425345</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C494" t="n">
         <v>0</v>
@@ -6862,24 +6862,24 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-612221773757681664</t>
+          <t>t-949010413437497347</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-753246884345487361</t>
+          <t>t-949151246799142913</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -6888,20 +6888,20 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-994824289349242881</t>
+          <t>t-950677684811640833</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-994897053523341314</t>
+          <t>t-703191098403872769</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,11 +6914,11 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-995019257841889281</t>
+          <t>t-703191473269780480</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C499" t="n">
         <v>0</v>
@@ -6927,7 +6927,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-995256568429064192</t>
+          <t>t-703218090671214592</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,7 +6940,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-760350969154723840</t>
+          <t>t-703248568765779969</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,46 +6953,46 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-1017675550318612480</t>
+          <t>t-703357904250757120</t>
         </is>
       </c>
       <c r="B502" t="n">
         <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-907976446286680066</t>
+          <t>t-703380366254612480</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-908018109373730816</t>
+          <t>t-703605156500381696</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-631869539597336576</t>
+          <t>t-897572628667478020</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,50 +7005,50 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-632875946828255232</t>
+          <t>t-852243165302198273</t>
         </is>
       </c>
       <c r="B506" t="n">
         <v>0</v>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-641169109116293120</t>
+          <t>t-737207145662435328</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-899696948046856192</t>
+          <t>t-737378615814393856</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-1035170375703961601</t>
+          <t>t-737618316705964032</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
         <v>0</v>
@@ -7057,20 +7057,20 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-1035201829989056512</t>
+          <t>t-737643792757587968</t>
         </is>
       </c>
       <c r="B510" t="n">
         <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-1035614467998998530</t>
+          <t>t-737668431374389250</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,20 +7083,20 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-1038016191711928321</t>
+          <t>t-737882738997530625</t>
         </is>
       </c>
       <c r="B512" t="n">
         <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-1038359113791680512</t>
+          <t>t-738072611704430592</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,46 +7109,46 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-636903909362167808</t>
+          <t>t-738383058857021440</t>
         </is>
       </c>
       <c r="B514" t="n">
         <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-639695836943884288</t>
+          <t>t-890865444307042304</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-642781966346010625</t>
+          <t>t-957301618868965376</t>
         </is>
       </c>
       <c r="B516" t="n">
         <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-643095780228771840</t>
+          <t>t-956210090935312384</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,33 +7161,33 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-643795122480631808</t>
+          <t>t-956914853922459649</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-880072530329038848</t>
+          <t>t-957307123943256064</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-723039191961985026</t>
+          <t>t-949338992599883776</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,20 +7200,20 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-1004612435792232448</t>
+          <t>t-949550500269166593</t>
         </is>
       </c>
       <c r="B521" t="n">
         <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-666556746308198401</t>
+          <t>t-956876178509516800</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,50 +7226,50 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-669879511748579329</t>
+          <t>t-739230360207261700</t>
         </is>
       </c>
       <c r="B523" t="n">
         <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-670195512713330689</t>
+          <t>t-740264154712449024</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-681422251338674177</t>
+          <t>t-897405884489506816</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-695507166833184769</t>
+          <t>t-902928093131808770</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
         <v>1</v>
@@ -7278,59 +7278,59 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-950677684811640833</t>
+          <t>t-740042390703099904</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-952055483354972160</t>
+          <t>t-740196910300962816</t>
         </is>
       </c>
       <c r="B528" t="n">
         <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-956932857389309953</t>
+          <t>t-1002274254954647552</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-957576777848717312</t>
+          <t>t-1002283218085863430</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-957930793187397632</t>
+          <t>t-740517137236647936</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,11 +7343,11 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-737669645872795648</t>
+          <t>t-824202245172592640</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C532" t="n">
         <v>1</v>
@@ -7356,11 +7356,11 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-890865444307042304</t>
+          <t>t-760154379307458560</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
         <v>0</v>
@@ -7369,37 +7369,37 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-738019407536984064</t>
+          <t>t-765679686244454400</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-738062401308917760</t>
+          <t>t-775632377695600641</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-738968020773703680</t>
+          <t>t-792319235351535616</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7408,20 +7408,20 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-739102239302770689</t>
+          <t>t-803544744215384064</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-739132972742418432</t>
+          <t>t-906552804285861889</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,20 +7434,20 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-739365982360178688</t>
+          <t>t-836581914320506880</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-739454625393324032</t>
+          <t>t-851409413646802945</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,11 +7460,11 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-956876178509516800</t>
+          <t>t-852631745438601216</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541" t="n">
         <v>0</v>
@@ -7473,20 +7473,20 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-897405884489506816</t>
+          <t>t-990385513898094592</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-740042390703099904</t>
+          <t>t-992831860215615489</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,20 +7499,20 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-740196910300962816</t>
+          <t>t-861335479475634176</t>
         </is>
       </c>
       <c r="B544" t="n">
         <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-1005463006455754752</t>
+          <t>t-875285232924188672</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -7525,7 +7525,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-740249467828482048</t>
+          <t>t-883552231022366723</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -7538,24 +7538,24 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-753159226390962176</t>
+          <t>t-892499939137335296</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>1</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-952704809529851906</t>
+          <t>t-894025914476105728</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
         <v>0</v>
@@ -7564,20 +7564,20 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-1041726034662633472</t>
+          <t>t-913806353851969537</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-760176866099601408</t>
+          <t>t-938446444700237824</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,11 +7590,11 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-765679686244454400</t>
+          <t>t-940225923332403204</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
         <v>1</v>
@@ -7603,7 +7603,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-775632377695600641</t>
+          <t>t-940273268677849088</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,33 +7616,33 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-793504441022504960</t>
+          <t>t-953922137156411392</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-795263551388663808</t>
+          <t>t-958848005502681088</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-801835115894755328</t>
+          <t>t-959068004729475072</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,20 +7655,20 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-834802174559412225</t>
+          <t>t-1003659615115141120</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-834805481759789056</t>
+          <t>t-1004723222363955200</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,33 +7681,33 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-836581914320506880</t>
+          <t>t-1030184521969410055</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-952289558770651136</t>
+          <t>t-666296658595069952</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-952536637413584897</t>
+          <t>t-666325159947563008</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,11 +7720,11 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-952649290148704259</t>
+          <t>t-572446866039697408</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C561" t="n">
         <v>1</v>
@@ -7733,11 +7733,11 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-952989314534617088</t>
+          <t>t-831833976029454338</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
         <v>1</v>
@@ -7746,33 +7746,33 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-862454112507580416</t>
+          <t>t-910155731134853120</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-1019231079817973760</t>
+          <t>t-910165111620329472</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-1002130830792241153</t>
+          <t>t-921445800072298496</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,33 +7785,33 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-886643817893560320</t>
+          <t>t-922085813818658816</t>
         </is>
       </c>
       <c r="B566" t="n">
         <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-970932114597335040</t>
+          <t>t-944057571853287424</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-949166298210082816</t>
+          <t>t-970475324591915008</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,11 +7824,11 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-988749833476325376</t>
+          <t>t-978263707544305664</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
         <v>1</v>
@@ -7837,24 +7837,24 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-1003736255149027328</t>
+          <t>t-1031392016255647744</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-1017566472292495360</t>
+          <t>t-718742884065759233</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C571" t="n">
         <v>1</v>
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-1043100641466490881</t>
+          <t>t-728392912636149760</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,11 +7876,11 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-1043534562775781377</t>
+          <t>t-772650812623290373</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C573" t="n">
         <v>0</v>
@@ -7889,11 +7889,11 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-1051774073523634182</t>
+          <t>t-772781827224285184</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C574" t="n">
         <v>0</v>
@@ -7902,20 +7902,20 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-1052071039923044352</t>
+          <t>t-773074057805737984</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-1052145118726238209</t>
+          <t>t-777605888655761409</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,24 +7928,24 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-1052182549513035776</t>
+          <t>t-778041943855026178</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-666296658595069952</t>
+          <t>t-778431677144018944</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -7954,7 +7954,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-666325159947563008</t>
+          <t>t-806390063244410880</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,33 +7967,33 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-675498810152325120</t>
+          <t>t-806499176066453505</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-931841011340296192</t>
+          <t>t-976046458834116609</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-956368490293800960</t>
+          <t>t-533912579676975104</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,7 +8006,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-956387965382610945</t>
+          <t>t-546829406539243520</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,7 +8019,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-510001639617351681</t>
+          <t>t-546846288554500096</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,11 +8032,11 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-512537797442273280</t>
+          <t>t-547603292180578305</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
         <v>1</v>
@@ -8045,24 +8045,24 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-557932086149918722</t>
+          <t>t-547621920103862272</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-558466774392266752</t>
+          <t>t-547636294059184128</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C587" t="n">
         <v>1</v>
@@ -8071,46 +8071,46 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-558501767688642560</t>
+          <t>t-547637054578769920</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-558892309320724482</t>
+          <t>t-674612681832140800</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-559263075183104000</t>
+          <t>t-683221184775733248</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-559573400780156928</t>
+          <t>t-718078465698881536</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,11 +8123,11 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-643644357350948864</t>
+          <t>t-718738885862232064</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C592" t="n">
         <v>1</v>
@@ -8136,7 +8136,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-645961089671405568</t>
+          <t>t-718790966774083584</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,11 +8149,11 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-788186519307563010</t>
+          <t>t-733931111152123906</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C594" t="n">
         <v>1</v>
@@ -8162,7 +8162,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-790900222368976896</t>
+          <t>t-734714075603718144</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -8175,7 +8175,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-790909371781746688</t>
+          <t>t-734767651981905921</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,7 +8188,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-791594802844434434</t>
+          <t>t-735043937040093185</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,11 +8201,11 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-806863559212679168</t>
+          <t>t-736424760335179778</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -8214,24 +8214,24 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-831833976029454338</t>
+          <t>t-740813200766214144</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>0</v>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-910155731134853120</t>
+          <t>t-764804167068024832</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="n">
         <v>1</v>
@@ -8240,7 +8240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-910165111620329472</t>
+          <t>t-794478910901624834</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,7 +8253,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-1041319973430255616</t>
+          <t>t-794502218061750272</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,7 +8266,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-706517570451427328</t>
+          <t>t-796319752176009216</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,11 +8279,11 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-710310372985741313</t>
+          <t>t-796346157156864001</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
         <v>1</v>
@@ -8292,11 +8292,11 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-718742884065759233</t>
+          <t>t-796369433241403393</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C605" t="n">
         <v>1</v>
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-727016962102980608</t>
+          <t>t-796693709639168001</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,7 +8318,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-727141031607595008</t>
+          <t>t-797722245741223936</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,24 +8331,24 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-782517721938300928</t>
+          <t>t-797729987348418561</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-820295860747542529</t>
+          <t>t-797771440128860162</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C609" t="n">
         <v>1</v>
@@ -8357,20 +8357,20 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-820993538456289280</t>
+          <t>t-797771478930366464</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-823758777857908736</t>
+          <t>t-797792110535528448</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,11 +8383,11 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-823809561622695937</t>
+          <t>t-798105876364029953</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C612" t="n">
         <v>1</v>
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-823868915621052416</t>
+          <t>t-799522784040849408</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-824113067696930816</t>
+          <t>t-838333127739260928</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-824154025864167424</t>
+          <t>t-838721199874048000</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,33 +8435,33 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-824160171534467072</t>
+          <t>t-1036192189947281408</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-825053893184753664</t>
+          <t>t-548367743385624577</t>
         </is>
       </c>
       <c r="B617" t="n">
         <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-825136994833428480</t>
+          <t>t-831995329318772736</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,11 +8474,11 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-825930607427416064</t>
+          <t>t-964120690952564737</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C619" t="n">
         <v>1</v>
@@ -8487,11 +8487,11 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-838217823608438784</t>
+          <t>t-1062500554134310912</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C620" t="n">
         <v>0</v>
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-871870603011043328</t>
+          <t>t-538727466139803648</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-872126007855038464</t>
+          <t>t-664725934935707650</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,46 +8526,46 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-916572694472155137</t>
+          <t>t-676067082081976320</t>
         </is>
       </c>
       <c r="B623" t="n">
         <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-965395788435046400</t>
+          <t>t-802829831633108992</t>
         </is>
       </c>
       <c r="B624" t="n">
         <v>0</v>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-519137345065320448</t>
+          <t>t-817345259164221440</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-561132509098827778</t>
+          <t>t-846329507103436800</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,46 +8578,46 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-573022010348982272</t>
+          <t>t-929369497420685312</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-580217985706528769</t>
+          <t>t-1000752833484881921</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-587184590302814208</t>
+          <t>t-1001352081465212928</t>
         </is>
       </c>
       <c r="B629" t="n">
         <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-587194258815221760</t>
+          <t>t-696949735576489985</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-587194893052747777</t>
+          <t>t-697001638108598272</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,11 +8643,11 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-666604346558271489</t>
+          <t>t-757366725759242240</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C632" t="n">
         <v>1</v>
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-667233953934282752</t>
+          <t>t-757494302339571712</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-669092226840981504</t>
+          <t>t-757771911346749441</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-713640428369612800</t>
+          <t>t-757882635976790016</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-713641932795215874</t>
+          <t>t-758521629890650113</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-713645035460251648</t>
+          <t>t-694164443224154112</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-713649642907406336</t>
+          <t>t-694343886626394113</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-713682083688767488</t>
+          <t>t-694445663426207744</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,20 +8747,20 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-714598783724597248</t>
+          <t>t-716900054133399553</t>
         </is>
       </c>
       <c r="B640" t="n">
         <v>1</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-714729459107119104</t>
+          <t>t-799444908029284352</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,20 +8773,20 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-715080311059517440</t>
+          <t>t-799480577057583104</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-736424760335179778</t>
+          <t>t-832183739346063361</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-749065341586726912</t>
+          <t>t-969977636670918656</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,11 +8812,11 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-834984646416842753</t>
+          <t>t-673010347008110593</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C645" t="n">
         <v>1</v>
@@ -8825,20 +8825,20 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-834986851718946816</t>
+          <t>t-697703131493355520</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-835051963096121344</t>
+          <t>t-698358832959873025</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-868766918035079168</t>
+          <t>t-757365069608923136</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-960348165114273792</t>
+          <t>t-547033780322455552</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-976030387188137984</t>
+          <t>t-547601049230782464</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-976030855033319425</t>
+          <t>t-548131100095442945</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-976037405776990208</t>
+          <t>t-681630649879543808</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,33 +8916,33 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-1024894521568448513</t>
+          <t>t-816403303852425216</t>
         </is>
       </c>
       <c r="B653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-529909835525939202</t>
+          <t>t-935391382331588609</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-548367743385624577</t>
+          <t>t-935397608851324931</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,11 +8955,11 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-723687727468683264</t>
+          <t>t-935407791757389824</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C656" t="n">
         <v>1</v>
@@ -8968,46 +8968,46 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-723764446498152448</t>
+          <t>t-540776934658277377</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-550981789649735680</t>
+          <t>t-558414856756293634</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-555289784240054272</t>
+          <t>t-558416982677422081</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-555290912268750848</t>
+          <t>t-745418927845453825</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,24 +9020,24 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-555447424768954368</t>
+          <t>t-753418052503502848</t>
         </is>
       </c>
       <c r="B661" t="n">
         <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-678547534269177856</t>
+          <t>t-776553403992252416</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C662" t="n">
         <v>1</v>
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-822370054381522945</t>
+          <t>t-776953291594866688</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-846329507103436800</t>
+          <t>t-776996787567464448</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,37 +9072,37 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-853130130432176128</t>
+          <t>t-777018247778631680</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-1028122158990381056</t>
+          <t>t-777139839556648960</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-902843730587115520</t>
+          <t>t-777163982893223936</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C667" t="n">
         <v>1</v>
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-696949735576489985</t>
+          <t>t-785106169677230080</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-697001638108598272</t>
+          <t>t-785108107227561984</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-740483903366926337</t>
+          <t>t-785110315553787904</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-825956164366172160</t>
+          <t>t-785111654228856832</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-825956302023163905</t>
+          <t>t-785153740848308225</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-825967811814125568</t>
+          <t>t-785284230573993984</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-825983840988467200</t>
+          <t>t-785337680368467968</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,11 +9202,11 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-832183739346063361</t>
+          <t>t-785343194607202304</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C675" t="n">
         <v>1</v>
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-969977636670918656</t>
+          <t>t-785389967123984386</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,37 +9228,37 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-983954928610697216</t>
+          <t>t-786190856218746880</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-532101195737735168</t>
+          <t>t-786491706409492481</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-532807839664730113</t>
+          <t>t-787902147698450432</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C679" t="n">
         <v>1</v>
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-666809196977909760</t>
+          <t>t-787981561949921280</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,20 +9280,20 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-673010347008110593</t>
+          <t>t-859771332908777474</t>
         </is>
       </c>
       <c r="B681" t="n">
         <v>0</v>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-674974370180239360</t>
+          <t>t-544020486527528960</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,20 +9306,20 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-697703131493355520</t>
+          <t>t-666482399069343745</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-698358832959873025</t>
+          <t>t-823731915236708352</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,11 +9332,11 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-817285829861093377</t>
+          <t>t-930542567199997958</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
         <v>1</v>
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-670770027604213760</t>
+          <t>t-1039555557609201664</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-540776934658277377</t>
+          <t>t-547937617547771905</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,11 +9371,11 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-787902147698450432</t>
+          <t>t-824143990274588672</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,11 +9384,11 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-787981561949921280</t>
+          <t>t-857803058968838144</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C689" t="n">
         <v>1</v>
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-801652200724451332</t>
+          <t>t-857867986841079808</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,20 +9410,20 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-820620984231174145</t>
+          <t>t-984973285124222976</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-930711486019854336</t>
+          <t>t-550867696435200000</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-931775243361779712</t>
+          <t>t-550870336418234368</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-966989390873378816</t>
+          <t>t-550963305326862336</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-1060932314279170048</t>
+          <t>t-551099005388599297</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,59 +9475,59 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-567587172367077376</t>
+          <t>t-551184362054500352</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-797685704197214209</t>
+          <t>t-950631505486737408</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-797694645522137093</t>
+          <t>t-950698684148142080</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-798670554630762496</t>
+          <t>t-564756286211100672</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-597692277847298049</t>
+          <t>t-565303060420112386</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,11 +9540,11 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-796490215078711296</t>
+          <t>t-565336619021262848</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C701" t="n">
         <v>1</v>
@@ -9553,20 +9553,20 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-857803058968838144</t>
+          <t>t-658189046523412480</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-857867986841079808</t>
+          <t>t-780018288940158976</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,20 +9579,20 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-801684041787273216</t>
+          <t>t-781093621592383488</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-814411097864159233</t>
+          <t>t-808956641743732736</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,7 +9605,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-814414402203983872</t>
+          <t>t-809733108471889920</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,7 +9618,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-814417111921479680</t>
+          <t>t-839272244895309824</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,7 +9631,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-814418757657296896</t>
+          <t>t-935764445632061440</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,11 +9644,11 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-814543705935736832</t>
+          <t>t-620194547256029184</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C709" t="n">
         <v>0</v>
@@ -9657,33 +9657,33 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-908138128514437120</t>
+          <t>t-1016952321333497856</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-950631505486737408</t>
+          <t>t-698712295900229633</t>
         </is>
       </c>
       <c r="B711" t="n">
         <v>0</v>
       </c>
       <c r="C711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-950698684148142080</t>
+          <t>t-757432883531304960</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-556107639625510912</t>
+          <t>t-775600763481436160</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,11 +9709,11 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-697434910303264773</t>
+          <t>t-950713527123066881</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C714" t="n">
         <v>1</v>
@@ -9722,50 +9722,50 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-706439330877714432</t>
+          <t>t-978443713629204480</t>
         </is>
       </c>
       <c r="B715" t="n">
         <v>1</v>
       </c>
       <c r="C715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-950566545595551745</t>
+          <t>t-978559522900910080</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-754793839844397056</t>
+          <t>t-677428252881784832</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-757432883531304960</t>
+          <t>t-702366811925438465</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-761430337377349632</t>
+          <t>t-718718501679017984</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,20 +9787,20 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-978443713629204480</t>
+          <t>t-802066289527095297</t>
         </is>
       </c>
       <c r="B720" t="n">
         <v>1</v>
       </c>
       <c r="C720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-978559522900910080</t>
+          <t>t-802114052063252481</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,20 +9813,20 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-998840776758120448</t>
+          <t>t-997052112126136320</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-579242361768677376</t>
+          <t>t-568062001399746560</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,20 +9839,20 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-720546793344270336</t>
+          <t>t-863292024522395649</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-753509017096364033</t>
+          <t>t-610619808913076224</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,11 +9865,11 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-765452831297970176</t>
+          <t>t-837085298324619265</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-833819761821757440</t>
+          <t>t-1062157078439968770</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-883957999576002561</t>
+          <t>t-737450472194211841</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-590978217546092544</t>
+          <t>t-737498199435317252</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,20 +9917,20 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-685863458978443264</t>
+          <t>t-732116489394851840</t>
         </is>
       </c>
       <c r="B730" t="n">
         <v>0</v>
       </c>
       <c r="C730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-797677972547219456</t>
+          <t>t-732306842290946048</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,13 +9943,26 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-833891988315336704</t>
+          <t>t-964014223184375808</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>t-946177924222222336</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
